--- a/固定资产表.xlsx
+++ b/固定资产表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7B6E87-CEFE-4D5D-8601-6887D742DE6F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7602A3F4-8365-4456-B46D-EAF33DED8EEC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3744" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5616" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="102">
   <si>
     <t>基础属性</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -218,15 +218,6 @@
   </si>
   <si>
     <t>006</t>
-  </si>
-  <si>
-    <t>007</t>
-  </si>
-  <si>
-    <t>008</t>
-  </si>
-  <si>
-    <t>009</t>
   </si>
   <si>
     <t>河沙坝集体林</t>
@@ -428,6 +419,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -566,7 +560,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -599,6 +593,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -881,17 +881,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK11"/>
+  <dimension ref="A1:AK8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="8.88671875" style="2"/>
     <col min="3" max="3" width="17.77734375" style="2" customWidth="1"/>
-    <col min="4" max="10" width="8.88671875" style="2"/>
+    <col min="4" max="5" width="8.88671875" style="2"/>
+    <col min="6" max="6" width="8.88671875" style="13"/>
+    <col min="7" max="10" width="8.88671875" style="2"/>
     <col min="11" max="12" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="15" width="8.88671875" style="2"/>
     <col min="16" max="16" width="10.88671875" style="2" customWidth="1"/>
@@ -967,7 +969,7 @@
       <c r="E2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="12" t="s">
         <v>33</v>
       </c>
       <c r="G2" s="3" t="s">
@@ -1069,37 +1071,37 @@
         <v>42</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>67</v>
+      <c r="F3" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="G3" s="2">
         <v>30</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="P3" s="2">
         <v>3</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="S3" s="2">
         <v>0</v>
@@ -1108,19 +1110,19 @@
         <v>3400</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:37" ht="26.4" x14ac:dyDescent="0.25">
@@ -1128,34 +1130,34 @@
         <v>43</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>67</v>
+      <c r="F4" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="G4" s="2">
         <v>200</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="S4" s="2">
         <v>400</v>
@@ -1164,16 +1166,16 @@
         <v>200</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:37" ht="26.4" x14ac:dyDescent="0.25">
@@ -1181,49 +1183,49 @@
         <v>44</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>68</v>
+      <c r="F5" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="G5" s="2">
         <v>5000</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="M5" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="T5" s="2">
         <v>200</v>
       </c>
       <c r="Y5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB5" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="Z5" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA5" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="AB5" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:37" ht="26.4" x14ac:dyDescent="0.25">
@@ -1231,55 +1233,55 @@
         <v>45</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>68</v>
+      <c r="F6" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="G6" s="2">
         <v>50</v>
       </c>
       <c r="H6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="M6" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="N6" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="P6" s="2">
         <v>5</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="T6" s="2">
         <v>200</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
@@ -1287,34 +1289,34 @@
         <v>46</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>69</v>
+      <c r="F7" s="13" t="s">
+        <v>66</v>
       </c>
       <c r="G7" s="2">
         <v>30</v>
       </c>
       <c r="H7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="J7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M7" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="R7" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="S7" s="2">
         <v>600</v>
@@ -1328,58 +1330,43 @@
         <v>47</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>67</v>
       </c>
       <c r="G8" s="2">
         <v>100</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M8" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="N8" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="N8" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="O8" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="P8" s="2">
         <v>20</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
